--- a/spec/ConvSpec-5XX-v1.7.xlsx
+++ b/spec/ConvSpec-5XX-v1.7.xlsx
@@ -1359,67 +1359,67 @@
     <t xml:space="preserve">I - supplementaryContent - SupplementaryContent </t>
   </si>
   <si>
-    <t>I - note - Note  ;  rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/with"</t>
-  </si>
-  <si>
-    <t>I - note - Note ; rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/report"</t>
-  </si>
-  <si>
-    <t>I - note - Note ; rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/issuance"</t>
-  </si>
-  <si>
-    <t>I - note - Note  ;  rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/computer"</t>
-  </si>
-  <si>
-    <t>I - note - Note ; rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/addphys"</t>
-  </si>
-  <si>
-    <t>I - note - Note ; rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/repro"</t>
-  </si>
-  <si>
-    <t>I - note - Note ; rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/orig"</t>
-  </si>
-  <si>
-    <t>I - note - Note  ;  rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/fundinfo"</t>
-  </si>
-  <si>
-    <t>I - note - Note ; rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/related"</t>
-  </si>
-  <si>
-    <t>## - rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/biogdata"</t>
-  </si>
-  <si>
-    <t>## - rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/adminhist"</t>
-  </si>
-  <si>
-    <t>I - note - Note  ;  rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/issuing"</t>
-  </si>
-  <si>
-    <t>## - rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/index"</t>
-  </si>
-  <si>
-    <t>## - rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/finding"</t>
-  </si>
-  <si>
-    <t>Item - note - Note  ; rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/binding"</t>
-  </si>
-  <si>
-    <t>I - note - Note ;  rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/related"</t>
-  </si>
-  <si>
-    <t>Item - note - Note  ;  rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/action"</t>
-  </si>
-  <si>
-    <t>I - note - Note  ;  rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/exhibit"</t>
-  </si>
-  <si>
-    <t>I - note - Note  ;  rdf:type rdfs:resource="http://id.loc.gov/vocabulary/mnotetype/descsource"</t>
-  </si>
-  <si>
-    <t>Fields 5XX - Notes - v1.7, 08/04/2021</t>
-  </si>
-  <si>
     <t>See Subfield $6.2 spec</t>
+  </si>
+  <si>
+    <t>I - note - Note  ;  rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/with"</t>
+  </si>
+  <si>
+    <t>I - note - Note ; rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/report"</t>
+  </si>
+  <si>
+    <t>I - note - Note ; rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/issuance"</t>
+  </si>
+  <si>
+    <t>I - note - Note  ;  rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/computer"</t>
+  </si>
+  <si>
+    <t>I - note - Note ; rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/addphys"</t>
+  </si>
+  <si>
+    <t>I - note - Note ; rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/repro"</t>
+  </si>
+  <si>
+    <t>I - note - Note ; rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/orig"</t>
+  </si>
+  <si>
+    <t>I - note - Note  ;  rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/fundinfo"</t>
+  </si>
+  <si>
+    <t>I - note - Note ; rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/related"</t>
+  </si>
+  <si>
+    <t>## - rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/biogdata"</t>
+  </si>
+  <si>
+    <t>## - rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/adminhist"</t>
+  </si>
+  <si>
+    <t>I - note - Note  ;  rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/issuing"</t>
+  </si>
+  <si>
+    <t>## - rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/index"</t>
+  </si>
+  <si>
+    <t>## - rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/finding"</t>
+  </si>
+  <si>
+    <t>Item - note - Note  ; rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/binding"</t>
+  </si>
+  <si>
+    <t>I - note - Note ;  rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/related"</t>
+  </si>
+  <si>
+    <t>Item - note - Note  ;  rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/action"</t>
+  </si>
+  <si>
+    <t>I - note - Note  ;  rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/exhibit"</t>
+  </si>
+  <si>
+    <t>I - note - Note  ;  rdf:type rdf:resource="http://id.loc.gov/vocabulary/mnotetype/descsource"</t>
+  </si>
+  <si>
+    <t>Fields 5XX - Notes - v1.7, 10/21/2021</t>
   </si>
 </sst>
 </file>
@@ -1482,18 +1482,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1561,11 +1555,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1917,14 +1911,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.54296875" style="5" customWidth="1"/>
     <col min="3" max="3" width="21.1796875" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.1796875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="21.7265625" style="1"/>
@@ -1932,9 +1926,9 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1945,7 +1939,7 @@
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>308</v>
       </c>
     </row>
@@ -1958,7 +1952,7 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1966,7 +1960,7 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -1974,7 +1968,7 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>306</v>
       </c>
     </row>
@@ -1982,8 +1976,8 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>465</v>
+      <c r="B8" s="6" t="s">
+        <v>445</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -1991,8 +1985,8 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>445</v>
+      <c r="B10" s="6" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2004,7 +1998,7 @@
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2012,7 +2006,7 @@
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2020,7 +2014,7 @@
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>311</v>
       </c>
     </row>
@@ -2028,7 +2022,7 @@
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>298</v>
       </c>
     </row>
@@ -2041,7 +2035,7 @@
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2049,7 +2043,7 @@
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>281</v>
       </c>
     </row>
@@ -2057,7 +2051,7 @@
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2065,7 +2059,7 @@
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>282</v>
       </c>
     </row>
@@ -2073,7 +2067,7 @@
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>371</v>
       </c>
     </row>
@@ -2081,7 +2075,7 @@
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>372</v>
       </c>
     </row>
@@ -2089,15 +2083,15 @@
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>465</v>
+      <c r="B24" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="31" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="6" t="s">
         <v>444</v>
       </c>
       <c r="D26" s="5"/>
@@ -2111,7 +2105,7 @@
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2119,7 +2113,7 @@
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>283</v>
       </c>
     </row>
@@ -2127,15 +2121,15 @@
       <c r="A30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>465</v>
+      <c r="B30" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="5" t="s">
         <v>340</v>
       </c>
     </row>
@@ -2148,7 +2142,7 @@
       <c r="A34" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2176,7 +2170,7 @@
       <c r="A39" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2199,7 +2193,7 @@
       <c r="A43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="5" t="s">
         <v>309</v>
       </c>
     </row>
@@ -2207,7 +2201,7 @@
       <c r="A44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2215,7 +2209,7 @@
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2223,7 +2217,7 @@
       <c r="A46" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2239,8 +2233,8 @@
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>465</v>
+      <c r="B48" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2252,7 +2246,7 @@
       <c r="A50" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="5" t="s">
         <v>367</v>
       </c>
       <c r="D50" s="5"/>
@@ -2266,7 +2260,7 @@
       <c r="A52" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2294,7 +2288,7 @@
       <c r="A57" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="5" t="s">
         <v>361</v>
       </c>
     </row>
@@ -2302,7 +2296,7 @@
       <c r="A58" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2310,7 +2304,7 @@
       <c r="A59" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2318,7 +2312,7 @@
       <c r="A60" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2326,7 +2320,7 @@
       <c r="A61" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2334,7 +2328,7 @@
       <c r="A62" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="14" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2342,7 +2336,7 @@
       <c r="A63" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="14" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2350,7 +2344,7 @@
       <c r="A64" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="14" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2358,7 +2352,7 @@
       <c r="A65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="14" t="s">
         <v>376</v>
       </c>
     </row>
@@ -2374,7 +2368,7 @@
       <c r="A67" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -2382,7 +2376,7 @@
       <c r="A68" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="5" t="s">
         <v>306</v>
       </c>
     </row>
@@ -2390,8 +2384,8 @@
       <c r="A69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="14" t="s">
-        <v>465</v>
+      <c r="B69" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -2403,7 +2397,7 @@
       <c r="A71" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="5" t="s">
         <v>355</v>
       </c>
     </row>
@@ -2424,7 +2418,7 @@
       <c r="A74" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="5" t="s">
         <v>300</v>
       </c>
     </row>
@@ -2432,8 +2426,8 @@
       <c r="A75" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="14" t="s">
-        <v>465</v>
+      <c r="B75" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -2445,7 +2439,7 @@
       <c r="A77" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="5" t="s">
         <v>356</v>
       </c>
     </row>
@@ -2458,7 +2452,7 @@
       <c r="A79" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="5" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2466,8 +2460,8 @@
       <c r="A80" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="14" t="s">
-        <v>465</v>
+      <c r="B80" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2479,7 +2473,7 @@
       <c r="A82" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="5" t="s">
         <v>330</v>
       </c>
     </row>
@@ -2567,7 +2561,7 @@
       <c r="A99" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="5" t="s">
         <v>356</v>
       </c>
     </row>
@@ -2580,7 +2574,7 @@
       <c r="A101" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2588,7 +2582,7 @@
       <c r="A102" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="5" t="s">
         <v>302</v>
       </c>
     </row>
@@ -2601,7 +2595,7 @@
       <c r="A104" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="5" t="s">
         <v>299</v>
       </c>
     </row>
@@ -2609,8 +2603,8 @@
       <c r="A105" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B105" s="14" t="s">
-        <v>465</v>
+      <c r="B105" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2622,8 +2616,8 @@
       <c r="A107" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>446</v>
+      <c r="B107" s="6" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2635,7 +2629,7 @@
       <c r="A109" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="5" t="s">
         <v>353</v>
       </c>
     </row>
@@ -2643,7 +2637,7 @@
       <c r="A110" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -2651,8 +2645,8 @@
       <c r="A111" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B111" s="14" t="s">
-        <v>465</v>
+      <c r="B111" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2658,7 @@
       <c r="A113" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2757,8 +2751,8 @@
       <c r="A131" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>447</v>
+      <c r="B131" s="6" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -2770,7 +2764,7 @@
       <c r="A133" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2778,8 +2772,8 @@
       <c r="A134" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B134" s="14" t="s">
-        <v>465</v>
+      <c r="B134" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -2791,15 +2785,15 @@
       <c r="A136" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>448</v>
+      <c r="B136" s="6" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2822,7 +2816,7 @@
       <c r="A141" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="5" t="s">
         <v>304</v>
       </c>
     </row>
@@ -2830,8 +2824,8 @@
       <c r="A142" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B142" s="14" t="s">
-        <v>465</v>
+      <c r="B142" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -2843,7 +2837,7 @@
       <c r="A144" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="5" t="s">
         <v>368</v>
       </c>
       <c r="D144" s="5"/>
@@ -2860,7 +2854,7 @@
       <c r="A146" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2868,7 +2862,7 @@
       <c r="A147" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="5" t="s">
         <v>282</v>
       </c>
     </row>
@@ -2876,7 +2870,7 @@
       <c r="A148" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" s="5" t="s">
         <v>371</v>
       </c>
     </row>
@@ -2884,7 +2878,7 @@
       <c r="A149" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="5" t="s">
         <v>373</v>
       </c>
     </row>
@@ -2892,7 +2886,7 @@
       <c r="A150" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2900,7 +2894,7 @@
       <c r="A151" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2908,7 +2902,7 @@
       <c r="A152" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2916,7 +2910,7 @@
       <c r="A153" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -2924,8 +2918,8 @@
       <c r="A154" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B154" s="14" t="s">
-        <v>465</v>
+      <c r="B154" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2937,7 +2931,7 @@
       <c r="A156" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" s="5" t="s">
         <v>362</v>
       </c>
     </row>
@@ -2950,7 +2944,7 @@
       <c r="A158" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2998,7 +2992,7 @@
       <c r="A167" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" s="5" t="s">
         <v>352</v>
       </c>
     </row>
@@ -3006,7 +3000,7 @@
       <c r="A168" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="B168" s="5" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3014,7 +3008,7 @@
       <c r="A169" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" s="5" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3022,7 +3016,7 @@
       <c r="A170" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" s="5" t="s">
         <v>377</v>
       </c>
     </row>
@@ -3030,7 +3024,7 @@
       <c r="A171" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3038,7 +3032,7 @@
       <c r="A172" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -3046,8 +3040,8 @@
       <c r="A173" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B173" s="14" t="s">
-        <v>465</v>
+      <c r="B173" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3059,7 +3053,7 @@
       <c r="A175" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" s="5" t="s">
         <v>358</v>
       </c>
     </row>
@@ -3077,7 +3071,7 @@
       <c r="A178" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3085,7 +3079,7 @@
       <c r="A179" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3093,7 +3087,7 @@
       <c r="A180" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3101,7 +3095,7 @@
       <c r="A181" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" s="5" t="s">
         <v>366</v>
       </c>
     </row>
@@ -3109,7 +3103,7 @@
       <c r="A182" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3117,7 +3111,7 @@
       <c r="A183" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3125,7 +3119,7 @@
       <c r="A184" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3138,7 +3132,7 @@
       <c r="A186" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" s="5" t="s">
         <v>353</v>
       </c>
     </row>
@@ -3154,7 +3148,7 @@
       <c r="A188" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="B188" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -3162,8 +3156,8 @@
       <c r="A189" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B189" s="14" t="s">
-        <v>465</v>
+      <c r="B189" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3175,7 +3169,7 @@
       <c r="A191" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" s="5" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3188,7 +3182,7 @@
       <c r="A193" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3211,7 +3205,7 @@
       <c r="A197" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3219,8 +3213,8 @@
       <c r="A198" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B198" s="14" t="s">
-        <v>465</v>
+      <c r="B198" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -3232,7 +3226,7 @@
       <c r="A200" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="B200" s="5" t="s">
         <v>312</v>
       </c>
       <c r="D200" s="5"/>
@@ -3246,7 +3240,7 @@
       <c r="A202" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3269,7 +3263,7 @@
       <c r="A206" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="B206" s="5" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3277,7 +3271,7 @@
       <c r="A207" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="B207" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3285,7 +3279,7 @@
       <c r="A208" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="B208" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3293,8 +3287,8 @@
       <c r="A209" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B209" s="14" t="s">
-        <v>465</v>
+      <c r="B209" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -3306,7 +3300,7 @@
       <c r="A211" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" s="5" t="s">
         <v>354</v>
       </c>
       <c r="D211" s="5"/>
@@ -3320,7 +3314,7 @@
       <c r="A213" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B213" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3328,8 +3322,8 @@
       <c r="A214" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B214" s="14" t="s">
-        <v>465</v>
+      <c r="B214" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -3341,7 +3335,7 @@
       <c r="A216" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3419,8 +3413,8 @@
       <c r="A231" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="B231" s="13" t="s">
-        <v>449</v>
+      <c r="B231" s="12" t="s">
+        <v>450</v>
       </c>
       <c r="C231" s="8"/>
     </row>
@@ -3428,21 +3422,21 @@
       <c r="A232" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B232" s="8"/>
+      <c r="B232" s="11"/>
       <c r="C232" s="8"/>
     </row>
     <row r="233" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="B233" s="8"/>
+      <c r="B233" s="11"/>
       <c r="C233" s="8"/>
     </row>
     <row r="234" spans="1:3" s="7" customFormat="1" ht="31" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="11" t="s">
         <v>440</v>
       </c>
       <c r="C234" s="8"/>
@@ -3478,7 +3472,7 @@
       <c r="A238" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B238" s="5" t="s">
         <v>377</v>
       </c>
       <c r="C238" s="11"/>
@@ -3487,7 +3481,7 @@
       <c r="A239" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B239" s="8" t="s">
+      <c r="B239" s="11" t="s">
         <v>327</v>
       </c>
       <c r="C239" s="8"/>
@@ -3496,8 +3490,8 @@
       <c r="A240" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B240" s="14" t="s">
-        <v>465</v>
+      <c r="B240" s="6" t="s">
+        <v>445</v>
       </c>
       <c r="C240" s="8"/>
     </row>
@@ -3511,7 +3505,7 @@
       <c r="A243" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B243" s="5" t="s">
         <v>350</v>
       </c>
     </row>
@@ -3519,7 +3513,7 @@
       <c r="A244" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B244" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3527,37 +3521,37 @@
       <c r="A245" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B245" s="1"/>
+      <c r="B245" s="5"/>
     </row>
     <row r="246" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B246" s="1"/>
+      <c r="B246" s="5"/>
     </row>
     <row r="247" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B247" s="1"/>
+      <c r="B247" s="5"/>
     </row>
     <row r="248" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B248" s="1"/>
+      <c r="B248" s="5"/>
     </row>
     <row r="249" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B249" s="1"/>
+      <c r="B249" s="5"/>
     </row>
     <row r="250" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="B250" s="5" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3565,8 +3559,8 @@
       <c r="A251" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B251" s="14" t="s">
-        <v>465</v>
+      <c r="B251" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3578,8 +3572,8 @@
       <c r="A253" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="B253" s="13" t="s">
-        <v>450</v>
+      <c r="B253" s="12" t="s">
+        <v>451</v>
       </c>
       <c r="C253" s="8"/>
     </row>
@@ -3587,21 +3581,21 @@
       <c r="A254" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B254" s="8"/>
+      <c r="B254" s="11"/>
       <c r="C254" s="8"/>
     </row>
     <row r="255" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="B255" s="8"/>
+      <c r="B255" s="11"/>
       <c r="C255" s="8"/>
     </row>
     <row r="256" spans="1:3" s="7" customFormat="1" ht="31" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="B256" s="8" t="s">
+      <c r="B256" s="11" t="s">
         <v>439</v>
       </c>
       <c r="C256" s="8"/>
@@ -3610,7 +3604,7 @@
       <c r="A257" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B257" s="8" t="s">
+      <c r="B257" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C257" s="8"/>
@@ -3619,7 +3613,7 @@
       <c r="A258" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="B258" s="8" t="s">
+      <c r="B258" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C258" s="8"/>
@@ -3628,7 +3622,7 @@
       <c r="A259" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B259" s="8" t="s">
+      <c r="B259" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C259" s="8"/>
@@ -3637,7 +3631,7 @@
       <c r="A260" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="B260" s="8" t="s">
+      <c r="B260" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C260" s="8"/>
@@ -3646,7 +3640,7 @@
       <c r="A261" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B261" s="8" t="s">
+      <c r="B261" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C261" s="8"/>
@@ -3655,7 +3649,7 @@
       <c r="A262" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="B262" s="8" t="s">
+      <c r="B262" s="11" t="s">
         <v>437</v>
       </c>
       <c r="C262" s="8"/>
@@ -3664,7 +3658,7 @@
       <c r="A263" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B263" s="8" t="s">
+      <c r="B263" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C263" s="8"/>
@@ -3673,7 +3667,7 @@
       <c r="A264" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B264" s="8" t="s">
+      <c r="B264" s="11" t="s">
         <v>327</v>
       </c>
       <c r="C264" s="8"/>
@@ -3682,7 +3676,7 @@
       <c r="A265" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="B265" s="8" t="s">
+      <c r="B265" s="11" t="s">
         <v>306</v>
       </c>
       <c r="C265" s="8"/>
@@ -3691,8 +3685,8 @@
       <c r="A266" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B266" s="14" t="s">
-        <v>465</v>
+      <c r="B266" s="6" t="s">
+        <v>445</v>
       </c>
       <c r="C266" s="8"/>
     </row>
@@ -3700,7 +3694,7 @@
       <c r="A267" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B267" s="8" t="s">
+      <c r="B267" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C267" s="8"/>
@@ -3709,75 +3703,75 @@
       <c r="A268" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B268" s="8"/>
+      <c r="B268" s="11"/>
       <c r="C268" s="8"/>
     </row>
     <row r="269" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B269" s="8"/>
+      <c r="B269" s="11"/>
       <c r="C269" s="8"/>
     </row>
     <row r="270" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B270" s="8"/>
+      <c r="B270" s="11"/>
       <c r="C270" s="8"/>
     </row>
     <row r="271" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="B271" s="8"/>
+      <c r="B271" s="11"/>
       <c r="C271" s="8"/>
     </row>
     <row r="272" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="B272" s="8"/>
+      <c r="B272" s="11"/>
       <c r="C272" s="8"/>
     </row>
     <row r="273" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B273" s="8"/>
+      <c r="B273" s="11"/>
       <c r="C273" s="8"/>
     </row>
     <row r="274" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="B274" s="8"/>
+      <c r="B274" s="11"/>
       <c r="C274" s="8"/>
     </row>
     <row r="275" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="B275" s="8"/>
+      <c r="B275" s="11"/>
       <c r="C275" s="8"/>
     </row>
     <row r="276" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="B276" s="8"/>
+      <c r="B276" s="11"/>
       <c r="C276" s="8"/>
     </row>
     <row r="277" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="8"/>
+      <c r="B277" s="11"/>
       <c r="C277" s="8"/>
     </row>
     <row r="278" spans="1:3" s="7" customFormat="1" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="B278" s="13" t="s">
-        <v>451</v>
+      <c r="B278" s="12" t="s">
+        <v>452</v>
       </c>
       <c r="C278" s="8"/>
     </row>
@@ -3785,21 +3779,21 @@
       <c r="A279" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="B279" s="8"/>
+      <c r="B279" s="11"/>
       <c r="C279" s="8"/>
     </row>
     <row r="280" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="B280" s="8"/>
+      <c r="B280" s="11"/>
       <c r="C280" s="8"/>
     </row>
     <row r="281" spans="1:3" s="7" customFormat="1" ht="31" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="B281" s="8" t="s">
+      <c r="B281" s="11" t="s">
         <v>438</v>
       </c>
       <c r="C281" s="8"/>
@@ -3808,7 +3802,7 @@
       <c r="A282" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="B282" s="8" t="s">
+      <c r="B282" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C282" s="8"/>
@@ -3817,7 +3811,7 @@
       <c r="A283" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B283" s="8" t="s">
+      <c r="B283" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C283" s="8"/>
@@ -3826,7 +3820,7 @@
       <c r="A284" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B284" s="8" t="s">
+      <c r="B284" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C284" s="8"/>
@@ -3835,7 +3829,7 @@
       <c r="A285" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="B285" s="8" t="s">
+      <c r="B285" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C285" s="8"/>
@@ -3844,7 +3838,7 @@
       <c r="A286" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="B286" s="8" t="s">
+      <c r="B286" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C286" s="8"/>
@@ -3853,7 +3847,7 @@
       <c r="A287" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="B287" s="8" t="s">
+      <c r="B287" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C287" s="8"/>
@@ -3862,7 +3856,7 @@
       <c r="A288" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="B288" s="8" t="s">
+      <c r="B288" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C288" s="8"/>
@@ -3871,7 +3865,7 @@
       <c r="A289" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B289" s="8" t="s">
+      <c r="B289" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C289" s="8"/>
@@ -3880,7 +3874,7 @@
       <c r="A290" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="B290" s="8" t="s">
+      <c r="B290" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C290" s="8"/>
@@ -3889,7 +3883,7 @@
       <c r="A291" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B291" s="8" t="s">
+      <c r="B291" s="11" t="s">
         <v>436</v>
       </c>
       <c r="C291" s="8"/>
@@ -3898,7 +3892,7 @@
       <c r="A292" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="B292" s="8" t="s">
+      <c r="B292" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C292" s="8"/>
@@ -3907,7 +3901,7 @@
       <c r="A293" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="B293" s="8" t="s">
+      <c r="B293" s="11" t="s">
         <v>435</v>
       </c>
       <c r="C293" s="12"/>
@@ -3916,7 +3910,7 @@
       <c r="A294" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="B294" s="8" t="s">
+      <c r="B294" s="11" t="s">
         <v>331</v>
       </c>
       <c r="C294" s="8"/>
@@ -3925,7 +3919,7 @@
       <c r="A295" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B295" s="8" t="s">
+      <c r="B295" s="11" t="s">
         <v>327</v>
       </c>
       <c r="C295" s="8"/>
@@ -3934,20 +3928,20 @@
       <c r="A296" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B296" s="14" t="s">
-        <v>465</v>
+      <c r="B296" s="6" t="s">
+        <v>445</v>
       </c>
       <c r="C296" s="8"/>
     </row>
     <row r="297" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="8"/>
+      <c r="B297" s="11"/>
       <c r="C297" s="8"/>
     </row>
     <row r="298" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="B298" s="8" t="s">
+      <c r="B298" s="11" t="s">
         <v>303</v>
       </c>
       <c r="C298" s="8"/>
@@ -3957,84 +3951,84 @@
       <c r="A299" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B299" s="8"/>
+      <c r="B299" s="11"/>
       <c r="C299" s="8"/>
     </row>
     <row r="300" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="B300" s="8"/>
+      <c r="B300" s="11"/>
       <c r="C300" s="8"/>
     </row>
     <row r="301" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B301" s="8"/>
+      <c r="B301" s="11"/>
       <c r="C301" s="8"/>
     </row>
     <row r="302" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="B302" s="8"/>
+      <c r="B302" s="11"/>
       <c r="C302" s="8"/>
     </row>
     <row r="303" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="B303" s="8"/>
+      <c r="B303" s="11"/>
       <c r="C303" s="8"/>
     </row>
     <row r="304" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="B304" s="8"/>
+      <c r="B304" s="11"/>
       <c r="C304" s="8"/>
     </row>
     <row r="305" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B305" s="8"/>
+      <c r="B305" s="11"/>
       <c r="C305" s="8"/>
     </row>
     <row r="306" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="B306" s="8"/>
+      <c r="B306" s="11"/>
       <c r="C306" s="8"/>
     </row>
     <row r="307" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="B307" s="8"/>
+      <c r="B307" s="11"/>
       <c r="C307" s="8"/>
     </row>
     <row r="308" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="B308" s="8"/>
+      <c r="B308" s="11"/>
       <c r="C308" s="8"/>
     </row>
     <row r="309" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B309" s="8"/>
+      <c r="B309" s="11"/>
       <c r="C309" s="8"/>
     </row>
     <row r="310" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B310" s="8"/>
+      <c r="B310" s="11"/>
       <c r="C310" s="8"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -4046,15 +4040,15 @@
       <c r="A312" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B312" s="4" t="s">
-        <v>452</v>
+      <c r="B312" s="6" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="B313" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4062,7 +4056,7 @@
       <c r="A314" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="B314" s="5" t="s">
         <v>304</v>
       </c>
     </row>
@@ -4070,7 +4064,7 @@
       <c r="A315" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="B315" s="5" t="s">
         <v>441</v>
       </c>
     </row>
@@ -4078,7 +4072,7 @@
       <c r="A316" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="B316" s="5" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4086,7 +4080,7 @@
       <c r="A317" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="B317" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4094,7 +4088,7 @@
       <c r="A318" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="B318" s="5" t="s">
         <v>314</v>
       </c>
     </row>
@@ -4102,7 +4096,7 @@
       <c r="A319" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="B319" s="5" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4110,7 +4104,7 @@
       <c r="A320" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="B320" s="5" t="s">
         <v>316</v>
       </c>
     </row>
@@ -4118,7 +4112,7 @@
       <c r="A321" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="B321" s="5" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4126,8 +4120,8 @@
       <c r="A322" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B322" s="14" t="s">
-        <v>465</v>
+      <c r="B322" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
@@ -4139,7 +4133,7 @@
       <c r="A324" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="B324" s="5" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4152,7 +4146,7 @@
       <c r="A326" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="B326" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4160,7 +4154,7 @@
       <c r="A327" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="B327" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4168,7 +4162,7 @@
       <c r="A328" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="B328" s="5" t="s">
         <v>377</v>
       </c>
     </row>
@@ -4176,7 +4170,7 @@
       <c r="A329" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="B329" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4184,7 +4178,7 @@
       <c r="A330" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="B330" s="5" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4192,8 +4186,8 @@
       <c r="A331" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B331" s="14" t="s">
-        <v>465</v>
+      <c r="B331" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
@@ -4205,7 +4199,7 @@
       <c r="A333" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="B333" s="5" t="s">
         <v>320</v>
       </c>
       <c r="D333" s="5"/>
@@ -4219,7 +4213,7 @@
       <c r="A335" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="B335" s="5" t="s">
         <v>363</v>
       </c>
     </row>
@@ -4227,7 +4221,7 @@
       <c r="A336" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="B336" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4243,7 +4237,7 @@
       <c r="A338" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="B338" s="5" t="s">
         <v>341</v>
       </c>
     </row>
@@ -4251,7 +4245,7 @@
       <c r="A339" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="B339" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4259,7 +4253,7 @@
       <c r="A340" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="B340" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4267,7 +4261,7 @@
       <c r="A341" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="B341" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4275,7 +4269,7 @@
       <c r="A342" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="B342" s="5" t="s">
         <v>377</v>
       </c>
     </row>
@@ -4283,7 +4277,7 @@
       <c r="A343" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="B343" s="5" t="s">
         <v>364</v>
       </c>
     </row>
@@ -4291,7 +4285,7 @@
       <c r="A344" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="B344" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4299,7 +4293,7 @@
       <c r="A345" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="B345" s="5" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4307,8 +4301,8 @@
       <c r="A346" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B346" s="14" t="s">
-        <v>465</v>
+      <c r="B346" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -4320,7 +4314,7 @@
       <c r="A348" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="B348" s="5" t="s">
         <v>318</v>
       </c>
     </row>
@@ -4328,7 +4322,7 @@
       <c r="A349" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="B349" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4356,7 +4350,7 @@
       <c r="A354" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="B354" s="5" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4364,7 +4358,7 @@
       <c r="A355" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="B355" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4372,7 +4366,7 @@
       <c r="A356" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="B356" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4380,7 +4374,7 @@
       <c r="A357" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="B357" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4388,7 +4382,7 @@
       <c r="A358" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="B358" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4396,7 +4390,7 @@
       <c r="A359" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B359" s="1" t="s">
+      <c r="B359" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4404,7 +4398,7 @@
       <c r="A360" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B360" s="1" t="s">
+      <c r="B360" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4412,7 +4406,7 @@
       <c r="A361" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="B361" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4420,7 +4414,7 @@
       <c r="A362" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B362" s="1" t="s">
+      <c r="B362" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4428,7 +4422,7 @@
       <c r="A363" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="B363" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4436,7 +4430,7 @@
       <c r="A364" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="B364" s="5" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4444,8 +4438,8 @@
       <c r="A365" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B365" s="14" t="s">
-        <v>465</v>
+      <c r="B365" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -4457,7 +4451,7 @@
       <c r="A367" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B367" s="1" t="s">
+      <c r="B367" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4600,15 +4594,15 @@
       <c r="A395" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B395" s="4" t="s">
-        <v>453</v>
+      <c r="B395" s="6" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B396" s="1" t="s">
+      <c r="B396" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4636,7 +4630,7 @@
       <c r="A401" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B401" s="1" t="s">
+      <c r="B401" s="5" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4644,7 +4638,7 @@
       <c r="A402" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B402" s="1" t="s">
+      <c r="B402" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4652,7 +4646,7 @@
       <c r="A403" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B403" s="1" t="s">
+      <c r="B403" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4660,7 +4654,7 @@
       <c r="A404" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B404" s="1" t="s">
+      <c r="B404" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4668,7 +4662,7 @@
       <c r="A405" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B405" s="1" t="s">
+      <c r="B405" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4676,7 +4670,7 @@
       <c r="A406" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B406" s="1" t="s">
+      <c r="B406" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4684,7 +4678,7 @@
       <c r="A407" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B407" s="1" t="s">
+      <c r="B407" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4692,8 +4686,8 @@
       <c r="A408" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B408" s="14" t="s">
-        <v>465</v>
+      <c r="B408" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -4705,7 +4699,7 @@
       <c r="A410" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B410" s="1" t="s">
+      <c r="B410" s="5" t="s">
         <v>324</v>
       </c>
     </row>
@@ -4723,7 +4717,7 @@
       <c r="A413" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B413" s="1" t="s">
+      <c r="B413" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4731,16 +4725,16 @@
       <c r="A414" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B414" s="4" t="s">
-        <v>454</v>
+      <c r="B414" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B415" s="4" t="s">
-        <v>455</v>
+      <c r="B415" s="6" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -4752,7 +4746,7 @@
       <c r="A417" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B417" s="1" t="s">
+      <c r="B417" s="5" t="s">
         <v>325</v>
       </c>
     </row>
@@ -4765,7 +4759,7 @@
       <c r="A419" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B419" s="1" t="s">
+      <c r="B419" s="5" t="s">
         <v>376</v>
       </c>
     </row>
@@ -4773,8 +4767,8 @@
       <c r="A420" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B420" s="14" t="s">
-        <v>465</v>
+      <c r="B420" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -4796,7 +4790,7 @@
       <c r="A424" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B424" s="1" t="s">
+      <c r="B424" s="5" t="s">
         <v>339</v>
       </c>
     </row>
@@ -4804,7 +4798,7 @@
       <c r="A425" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B425" s="1" t="s">
+      <c r="B425" s="5" t="s">
         <v>338</v>
       </c>
     </row>
@@ -4812,7 +4806,7 @@
       <c r="A426" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B426" s="1" t="s">
+      <c r="B426" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4820,8 +4814,8 @@
       <c r="A427" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B427" s="14" t="s">
-        <v>465</v>
+      <c r="B427" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -4833,7 +4827,7 @@
       <c r="A429" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B429" s="1" t="s">
+      <c r="B429" s="5" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4846,7 +4840,7 @@
       <c r="A431" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B431" s="1" t="s">
+      <c r="B431" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4854,8 +4848,8 @@
       <c r="A432" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B432" s="14" t="s">
-        <v>465</v>
+      <c r="B432" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -4867,8 +4861,8 @@
       <c r="A434" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B434" s="4" t="s">
-        <v>456</v>
+      <c r="B434" s="6" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -4880,7 +4874,7 @@
       <c r="A436" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B436" s="1" t="s">
+      <c r="B436" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4888,8 +4882,8 @@
       <c r="A437" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B437" s="14" t="s">
-        <v>465</v>
+      <c r="B437" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -4901,7 +4895,7 @@
       <c r="A439" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B439" s="1" t="s">
+      <c r="B439" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5014,7 +5008,7 @@
       <c r="A461" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B461" s="1" t="s">
+      <c r="B461" s="5" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5032,16 +5026,16 @@
       <c r="A464" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B464" s="4" t="s">
-        <v>457</v>
+      <c r="B464" s="6" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="465" spans="1:2" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B465" s="4" t="s">
-        <v>458</v>
+      <c r="B465" s="6" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -5058,7 +5052,7 @@
       <c r="A468" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B468" s="1" t="s">
+      <c r="B468" s="5" t="s">
         <v>326</v>
       </c>
     </row>
@@ -5066,7 +5060,7 @@
       <c r="A469" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B469" s="1" t="s">
+      <c r="B469" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -5074,7 +5068,7 @@
       <c r="A470" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B470" s="1" t="s">
+      <c r="B470" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -5082,7 +5076,7 @@
       <c r="A471" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B471" s="1" t="s">
+      <c r="B471" s="5" t="s">
         <v>301</v>
       </c>
     </row>
@@ -5090,7 +5084,7 @@
       <c r="A472" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B472" s="1" t="s">
+      <c r="B472" s="5" t="s">
         <v>376</v>
       </c>
     </row>
@@ -5098,7 +5092,7 @@
       <c r="A473" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B473" s="1" t="s">
+      <c r="B473" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5106,8 +5100,8 @@
       <c r="A474" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B474" s="14" t="s">
-        <v>465</v>
+      <c r="B474" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -5119,7 +5113,7 @@
       <c r="A476" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B476" s="1" t="s">
+      <c r="B476" s="5" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5132,7 +5126,7 @@
       <c r="A478" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B478" s="1" t="s">
+      <c r="B478" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5155,7 +5149,7 @@
       <c r="A482" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B482" s="1" t="s">
+      <c r="B482" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5163,7 +5157,7 @@
       <c r="A483" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B483" s="1" t="s">
+      <c r="B483" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5171,8 +5165,8 @@
       <c r="A484" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B484" s="14" t="s">
-        <v>465</v>
+      <c r="B484" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -5184,7 +5178,7 @@
       <c r="A486" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B486" s="1" t="s">
+      <c r="B486" s="5" t="s">
         <v>357</v>
       </c>
     </row>
@@ -5197,7 +5191,7 @@
       <c r="A488" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B488" s="1" t="s">
+      <c r="B488" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5225,7 +5219,7 @@
       <c r="A493" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B493" s="1" t="s">
+      <c r="B493" s="5" t="s">
         <v>299</v>
       </c>
     </row>
@@ -5233,7 +5227,7 @@
       <c r="A494" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B494" s="1" t="s">
+      <c r="B494" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5241,7 +5235,7 @@
       <c r="A495" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B495" s="1" t="s">
+      <c r="B495" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5249,7 +5243,7 @@
       <c r="A496" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B496" s="1" t="s">
+      <c r="B496" s="5" t="s">
         <v>306</v>
       </c>
     </row>
@@ -5257,8 +5251,8 @@
       <c r="A497" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B497" s="14" t="s">
-        <v>465</v>
+      <c r="B497" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -5270,7 +5264,7 @@
       <c r="A499" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B499" s="1" t="s">
+      <c r="B499" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5328,8 +5322,8 @@
       <c r="A510" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B510" s="4" t="s">
-        <v>459</v>
+      <c r="B510" s="6" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -5341,7 +5335,7 @@
       <c r="A512" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B512" s="1" t="s">
+      <c r="B512" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5349,7 +5343,7 @@
       <c r="A513" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B513" s="1" t="s">
+      <c r="B513" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5357,7 +5351,7 @@
       <c r="A514" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B514" s="1" t="s">
+      <c r="B514" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5365,7 +5359,7 @@
       <c r="A515" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B515" s="1" t="s">
+      <c r="B515" s="5" t="s">
         <v>306</v>
       </c>
     </row>
@@ -5373,8 +5367,8 @@
       <c r="A516" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B516" s="14" t="s">
-        <v>465</v>
+      <c r="B516" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -5386,7 +5380,7 @@
       <c r="A518" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B518" s="1" t="s">
+      <c r="B518" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5459,7 +5453,7 @@
       <c r="A532" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B532" s="1" t="s">
+      <c r="B532" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5502,6 +5496,7 @@
       <c r="A540" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="B540" s="6"/>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
@@ -5522,7 +5517,7 @@
       <c r="A544" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B544" s="1" t="s">
+      <c r="B544" s="5" t="s">
         <v>307</v>
       </c>
     </row>
@@ -5535,7 +5530,7 @@
       <c r="A546" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B546" s="1" t="s">
+      <c r="B546" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5543,8 +5538,8 @@
       <c r="A547" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B547" s="14" t="s">
-        <v>465</v>
+      <c r="B547" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -5556,8 +5551,8 @@
       <c r="A549" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B549" s="4" t="s">
-        <v>460</v>
+      <c r="B549" s="6" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
@@ -5569,7 +5564,7 @@
       <c r="A551" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B551" s="1" t="s">
+      <c r="B551" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5592,7 +5587,7 @@
       <c r="A555" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B555" s="1" t="s">
+      <c r="B555" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5600,7 +5595,7 @@
       <c r="A556" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B556" s="1" t="s">
+      <c r="B556" s="5" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5608,7 +5603,7 @@
       <c r="A557" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B557" s="1" t="s">
+      <c r="B557" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5616,8 +5611,8 @@
       <c r="A558" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B558" s="14" t="s">
-        <v>465</v>
+      <c r="B558" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -5629,8 +5624,8 @@
       <c r="A560" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B560" s="4" t="s">
-        <v>461</v>
+      <c r="B560" s="6" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -5642,7 +5637,7 @@
       <c r="A562" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B562" s="1" t="s">
+      <c r="B562" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5670,7 +5665,7 @@
       <c r="A567" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B567" s="1" t="s">
+      <c r="B567" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5678,7 +5673,7 @@
       <c r="A568" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B568" s="1" t="s">
+      <c r="B568" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5686,7 +5681,7 @@
       <c r="A569" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B569" s="1" t="s">
+      <c r="B569" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5694,7 +5689,7 @@
       <c r="A570" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B570" s="1" t="s">
+      <c r="B570" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5702,7 +5697,7 @@
       <c r="A571" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B571" s="1" t="s">
+      <c r="B571" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5718,7 +5713,7 @@
       <c r="A573" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B573" s="1" t="s">
+      <c r="B573" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5726,7 +5721,7 @@
       <c r="A574" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B574" s="1" t="s">
+      <c r="B574" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5734,7 +5729,7 @@
       <c r="A575" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B575" s="1" t="s">
+      <c r="B575" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5742,7 +5737,7 @@
       <c r="A576" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B576" s="1" t="s">
+      <c r="B576" s="5" t="s">
         <v>328</v>
       </c>
     </row>
@@ -5750,7 +5745,7 @@
       <c r="A577" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B577" s="1" t="s">
+      <c r="B577" s="5" t="s">
         <v>329</v>
       </c>
     </row>
@@ -5758,7 +5753,7 @@
       <c r="A578" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B578" s="1" t="s">
+      <c r="B578" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5766,7 +5761,7 @@
       <c r="A579" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B579" s="1" t="s">
+      <c r="B579" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5774,7 +5769,7 @@
       <c r="A580" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B580" s="1" t="s">
+      <c r="B580" s="5" t="s">
         <v>378</v>
       </c>
     </row>
@@ -5782,7 +5777,7 @@
       <c r="A581" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B581" s="1" t="s">
+      <c r="B581" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5790,7 +5785,7 @@
       <c r="A582" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B582" s="1" t="s">
+      <c r="B582" s="5" t="s">
         <v>333</v>
       </c>
     </row>
@@ -5798,7 +5793,7 @@
       <c r="A583" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B583" s="1" t="s">
+      <c r="B583" s="5" t="s">
         <v>364</v>
       </c>
     </row>
@@ -5806,7 +5801,7 @@
       <c r="A584" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B584" s="1" t="s">
+      <c r="B584" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5814,7 +5809,7 @@
       <c r="A585" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B585" s="1" t="s">
+      <c r="B585" s="5" t="s">
         <v>306</v>
       </c>
     </row>
@@ -5822,8 +5817,8 @@
       <c r="A586" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B586" s="14" t="s">
-        <v>465</v>
+      <c r="B586" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -5835,7 +5830,7 @@
       <c r="A588" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B588" s="1" t="s">
+      <c r="B588" s="5" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5878,8 +5873,8 @@
       <c r="A596" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B596" s="4" t="s">
-        <v>462</v>
+      <c r="B596" s="6" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -5891,7 +5886,7 @@
       <c r="A598" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B598" s="1" t="s">
+      <c r="B598" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5899,7 +5894,7 @@
       <c r="A599" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B599" s="1" t="s">
+      <c r="B599" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5907,7 +5902,7 @@
       <c r="A600" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B600" s="1" t="s">
+      <c r="B600" s="5" t="s">
         <v>306</v>
       </c>
     </row>
@@ -5915,8 +5910,8 @@
       <c r="A601" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B601" s="14" t="s">
-        <v>465</v>
+      <c r="B601" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
@@ -5936,7 +5931,7 @@
       <c r="A605" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B605" s="1" t="s">
+      <c r="B605" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5959,7 +5954,7 @@
       <c r="A609" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B609" s="1" t="s">
+      <c r="B609" s="5" t="s">
         <v>299</v>
       </c>
     </row>
@@ -5967,7 +5962,7 @@
       <c r="A610" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B610" s="1" t="s">
+      <c r="B610" s="5" t="s">
         <v>327</v>
       </c>
     </row>
@@ -5975,8 +5970,8 @@
       <c r="A611" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B611" s="14" t="s">
-        <v>465</v>
+      <c r="B611" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -5988,8 +5983,8 @@
       <c r="A613" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B613" s="4" t="s">
-        <v>463</v>
+      <c r="B613" s="6" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -6001,7 +5996,7 @@
       <c r="A615" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B615" s="1" t="s">
+      <c r="B615" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6014,7 +6009,7 @@
       <c r="A617" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B617" s="4" t="s">
+      <c r="B617" s="6" t="s">
         <v>442</v>
       </c>
     </row>
@@ -6022,7 +6017,7 @@
       <c r="A618" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B618" s="1" t="s">
+      <c r="B618" s="5" t="s">
         <v>374</v>
       </c>
     </row>
@@ -6030,13 +6025,13 @@
       <c r="A619" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B619" s="4"/>
+      <c r="B619" s="6"/>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B620" s="1" t="s">
+      <c r="B620" s="5" t="s">
         <v>375</v>
       </c>
     </row>
@@ -6044,7 +6039,7 @@
       <c r="A621" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B621" s="1" t="s">
+      <c r="B621" s="5" t="s">
         <v>306</v>
       </c>
     </row>
@@ -6052,8 +6047,8 @@
       <c r="A622" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B622" s="14" t="s">
-        <v>465</v>
+      <c r="B622" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
